--- a/updated.xlsx
+++ b/updated.xlsx
@@ -19,17 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>yogesh@zee.com</t>
-  </si>
-  <si>
-    <t>9999</t>
-  </si>
-  <si>
-    <t>granted</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -346,24 +336,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/updated.xlsx
+++ b/updated.xlsx
@@ -19,7 +19,98 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="30">
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>granted</t>
+  </si>
+  <si>
+    <t>qazibckaman12qq@zee.com</t>
+  </si>
+  <si>
+    <t>599</t>
+  </si>
+  <si>
+    <t>qqqqangad12@zee.com</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>shamit1222@zee.com</t>
+  </si>
+  <si>
+    <t>299</t>
+  </si>
+  <si>
+    <t>Mamaaaa122@zee.com</t>
+  </si>
+  <si>
+    <t>qpqpqBaa122@zee.com</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>qqqwertPaa1@zee.com</t>
+  </si>
+  <si>
+    <t>lavi12@zee.com</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>lambu12@zee.com</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>manju0123@zee.com</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>Harry1@zee.com</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>Hemanth1@zee.com</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>yogesh1@zee.com</t>
+  </si>
+  <si>
+    <t>9999</t>
+  </si>
+  <si>
+    <t>Invalid Email Domain</t>
+  </si>
+  <si>
+    <t>Already Granted</t>
+  </si>
+  <si>
+    <t>divya@gmail.com</t>
+  </si>
+  <si>
+    <t>499</t>
+  </si>
+  <si>
+    <t>shre@google.com</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -336,12 +427,321 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/updated.xlsx
+++ b/updated.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="32">
   <si>
     <t>email</t>
   </si>
@@ -109,6 +109,12 @@
   </si>
   <si>
     <t>shre@google.com</t>
+  </si>
+  <si>
+    <t>prathik@zee.com</t>
+  </si>
+  <si>
+    <t>Arpit@zee.com</t>
   </si>
 </sst>
 </file>
@@ -427,7 +433,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -741,6 +747,215 @@
         <v>25</v>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>31</v>
+      </c>
+      <c r="B45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/updated.xlsx
+++ b/updated.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="33">
   <si>
     <t>email</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>Arpit@zee.com</t>
+  </si>
+  <si>
+    <t>Invalid mobile Number</t>
   </si>
 </sst>
 </file>
@@ -433,7 +436,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -956,6 +959,50 @@
         <v>26</v>
       </c>
     </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>30</v>
+      </c>
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>30</v>
+      </c>
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>31</v>
+      </c>
+      <c r="B51" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/updated.xlsx
+++ b/updated.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="33">
   <si>
     <t>email</t>
   </si>
@@ -436,7 +436,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1003,6 +1003,28 @@
         <v>32</v>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>30</v>
+      </c>
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>31</v>
+      </c>
+      <c r="B53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
